--- a/data/trans_orig/CoTrAQ_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ_R2-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>12412</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6814</v>
+        <v>6693</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20545</v>
+        <v>21255</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04195511899124037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02303325180962504</v>
+        <v>0.02262515174567797</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06944603550651153</v>
+        <v>0.07184828586040566</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -763,19 +763,19 @@
         <v>10090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5025</v>
+        <v>5034</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19480</v>
+        <v>19100</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05361882677156386</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02670490461063657</v>
+        <v>0.02675401066517072</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1035229719730268</v>
+        <v>0.1015015027036553</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -784,19 +784,19 @@
         <v>22502</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15004</v>
+        <v>14526</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34370</v>
+        <v>32776</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04648973864778455</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03099925912152001</v>
+        <v>0.03001198886713915</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07101037030709101</v>
+        <v>0.06771685211141872</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>283426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275293</v>
+        <v>274583</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289024</v>
+        <v>289145</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9580448810087596</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9305539644934884</v>
+        <v>0.9281517141395944</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.976966748190375</v>
+        <v>0.9773748482543221</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>161</v>
@@ -834,19 +834,19 @@
         <v>178084</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>168694</v>
+        <v>169074</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>183149</v>
+        <v>183140</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9463811732284362</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8964770280269729</v>
+        <v>0.8984984972963458</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9732950953893634</v>
+        <v>0.9732459893348293</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>425</v>
@@ -855,19 +855,19 @@
         <v>461510</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>449642</v>
+        <v>451236</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>469008</v>
+        <v>469486</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9535102613522154</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.928989629692909</v>
+        <v>0.9322831478885818</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9690007408784799</v>
+        <v>0.9699880111328611</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>20389</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13309</v>
+        <v>13099</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31235</v>
+        <v>31185</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08169576817921301</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05332870586524244</v>
+        <v>0.05248525045438623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1251577291097712</v>
+        <v>0.1249534238597456</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -980,19 +980,19 @@
         <v>26485</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16463</v>
+        <v>17831</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38181</v>
+        <v>37785</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1736690726187755</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1079502034356973</v>
+        <v>0.1169212852310067</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2503670859143072</v>
+        <v>0.2477693738631175</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -1001,19 +1001,19 @@
         <v>46873</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34305</v>
+        <v>33970</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62652</v>
+        <v>61564</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1165802697914825</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08532058691943743</v>
+        <v>0.08448909411083486</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1558251271159196</v>
+        <v>0.1531171322596272</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>229180</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>218334</v>
+        <v>218384</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>236260</v>
+        <v>236470</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.918304231820787</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8748422708902288</v>
+        <v>0.8750465761402541</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9466712941347576</v>
+        <v>0.9475147495456137</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>117</v>
@@ -1051,19 +1051,19 @@
         <v>126016</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>114320</v>
+        <v>114716</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>136038</v>
+        <v>134670</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8263309273812245</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7496329140856927</v>
+        <v>0.7522306261368823</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8920497965643026</v>
+        <v>0.883078714768993</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>322</v>
@@ -1072,19 +1072,19 @@
         <v>355196</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>339417</v>
+        <v>340505</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>367764</v>
+        <v>368099</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8834197302085175</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8441748728840803</v>
+        <v>0.8468828677403728</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9146794130805626</v>
+        <v>0.9155109058891651</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>25729</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16654</v>
+        <v>16532</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37340</v>
+        <v>37032</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09335712196396036</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06043041499420541</v>
+        <v>0.05998805134123718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1354899471045781</v>
+        <v>0.1343722273062717</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1197,19 +1197,19 @@
         <v>7270</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3196</v>
+        <v>3113</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14210</v>
+        <v>14193</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06822754061043848</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02999100275642264</v>
+        <v>0.0292118431938869</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.13336672415642</v>
+        <v>0.1332022818667427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1218,19 +1218,19 @@
         <v>32998</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23029</v>
+        <v>23447</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46918</v>
+        <v>46113</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08635033741902483</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06026175858256523</v>
+        <v>0.0613571786062977</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1227750246727768</v>
+        <v>0.1206684422141682</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>249864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238253</v>
+        <v>238561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>258939</v>
+        <v>259061</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9066428780360396</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8645100528954219</v>
+        <v>0.8656277726937284</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9395695850057948</v>
+        <v>0.9400119486587631</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>94</v>
@@ -1268,19 +1268,19 @@
         <v>99282</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>92342</v>
+        <v>92359</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>103356</v>
+        <v>103439</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9317724593895615</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8666332758435805</v>
+        <v>0.8667977181332543</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9700089972435774</v>
+        <v>0.970788156806113</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>340</v>
@@ -1289,19 +1289,19 @@
         <v>349147</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>335227</v>
+        <v>336032</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>359116</v>
+        <v>358698</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9136496625809751</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.877224975327223</v>
+        <v>0.8793315577858318</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9397382414174347</v>
+        <v>0.9386428213937024</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>77051</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63056</v>
+        <v>62175</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94046</v>
+        <v>94237</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1882322971691493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1540417873827793</v>
+        <v>0.1518912190990874</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2297491285559824</v>
+        <v>0.2302172281084531</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -1414,19 +1414,19 @@
         <v>56714</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44517</v>
+        <v>43496</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72426</v>
+        <v>71000</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1984427961132189</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1557646396974024</v>
+        <v>0.1521921067767696</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2534174054920855</v>
+        <v>0.2484274547911183</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -1435,19 +1435,19 @@
         <v>133766</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112457</v>
+        <v>114343</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154989</v>
+        <v>157232</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1924302095420815</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1617772252907907</v>
+        <v>0.1644896851405308</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2229621744423045</v>
+        <v>0.2261877749817937</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>332290</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>315295</v>
+        <v>315104</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>346285</v>
+        <v>347166</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8117677028308508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7702508714440175</v>
+        <v>0.7697827718915465</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8459582126172207</v>
+        <v>0.8481087809009126</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>217</v>
@@ -1485,19 +1485,19 @@
         <v>229083</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>213371</v>
+        <v>214797</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>241280</v>
+        <v>242301</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8015572038867811</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7465825945079145</v>
+        <v>0.7515725452088817</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8442353603025976</v>
+        <v>0.8478078932232304</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>532</v>
@@ -1506,19 +1506,19 @@
         <v>561372</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>540149</v>
+        <v>537906</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>582681</v>
+        <v>580795</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8075697904579185</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7770378255576956</v>
+        <v>0.7738122250182065</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8382227747092095</v>
+        <v>0.8355103148594694</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>47453</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36900</v>
+        <v>35845</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60710</v>
+        <v>59012</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3260587421704393</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2535439188374389</v>
+        <v>0.2462999021781663</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4171505061326486</v>
+        <v>0.4054860465323298</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -1631,19 +1631,19 @@
         <v>53009</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40658</v>
+        <v>40428</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66452</v>
+        <v>66154</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3141797093321386</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2409752061648072</v>
+        <v>0.2396169375445077</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3938582899945716</v>
+        <v>0.3920917424098386</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>91</v>
@@ -1652,19 +1652,19 @@
         <v>100462</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84391</v>
+        <v>81751</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>118730</v>
+        <v>117750</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3196810015180206</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2685421142069896</v>
+        <v>0.260139908252819</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3778118447519379</v>
+        <v>0.3746922352977495</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>98082</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84825</v>
+        <v>86523</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108635</v>
+        <v>109690</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6739412578295607</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5828494938673511</v>
+        <v>0.5945139534676701</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7464560811625611</v>
+        <v>0.7537000978218337</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>106</v>
@@ -1702,19 +1702,19 @@
         <v>115712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>102269</v>
+        <v>102567</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>128063</v>
+        <v>128293</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6858202906678614</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6061417100054283</v>
+        <v>0.6079082575901614</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7590247938351926</v>
+        <v>0.7603830624554919</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>199</v>
@@ -1723,19 +1723,19 @@
         <v>213795</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>195527</v>
+        <v>196507</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>229866</v>
+        <v>232506</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6803189984819794</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.622188155248062</v>
+        <v>0.6253077647022504</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7314578857930103</v>
+        <v>0.739860091747181</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>183033</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>156291</v>
+        <v>158111</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>208641</v>
+        <v>210355</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1330304972273066</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1135938181603708</v>
+        <v>0.1149168300121982</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.151642603299543</v>
+        <v>0.1528877348235676</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>137</v>
@@ -1848,19 +1848,19 @@
         <v>153567</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>132329</v>
+        <v>132752</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>178499</v>
+        <v>180122</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1703000622688544</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1467473428144407</v>
+        <v>0.147216606164275</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.197948588015199</v>
+        <v>0.1997483089284087</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>307</v>
@@ -1869,19 +1869,19 @@
         <v>336601</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>303242</v>
+        <v>302557</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>372747</v>
+        <v>375346</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.147786091608714</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1331397933083776</v>
+        <v>0.1328389583477025</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1636562063974429</v>
+        <v>0.1647972711498612</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>1192843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1167235</v>
+        <v>1165521</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1219585</v>
+        <v>1217765</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8669695027726934</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8483573967004571</v>
+        <v>0.8471122651764323</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8864061818396293</v>
+        <v>0.8850831699878017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>695</v>
@@ -1919,19 +1919,19 @@
         <v>748178</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>723246</v>
+        <v>721623</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>769416</v>
+        <v>768993</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8296999377311457</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.802051411984801</v>
+        <v>0.8002516910715913</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8532526571855593</v>
+        <v>0.852783393835725</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1818</v>
@@ -1940,19 +1940,19 @@
         <v>1941020</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1904874</v>
+        <v>1902275</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1974379</v>
+        <v>1975064</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.852213908391286</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8363437936025571</v>
+        <v>0.8352027288501388</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8668602066916224</v>
+        <v>0.8671610416522975</v>
       </c>
     </row>
     <row r="21">
@@ -2285,19 +2285,19 @@
         <v>27083</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17515</v>
+        <v>18122</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38615</v>
+        <v>40299</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09810934174212524</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0634488671958609</v>
+        <v>0.0656468497565682</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1398807725060832</v>
+        <v>0.145982742555487</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2306,19 +2306,19 @@
         <v>26248</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18094</v>
+        <v>16336</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38382</v>
+        <v>36981</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1225526866179179</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08448052653697073</v>
+        <v>0.07627348237699291</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1792087465630435</v>
+        <v>0.1726667292785249</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -2327,19 +2327,19 @@
         <v>53331</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40811</v>
+        <v>40474</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69138</v>
+        <v>69283</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.10878835011675</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08324931799906708</v>
+        <v>0.08256217467058644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1410327977558641</v>
+        <v>0.1413287486148456</v>
       </c>
     </row>
     <row r="5">
@@ -2356,19 +2356,19 @@
         <v>248970</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>237438</v>
+        <v>235754</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>258538</v>
+        <v>257931</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9018906582578747</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8601192274939168</v>
+        <v>0.8540172574445131</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9365511328041392</v>
+        <v>0.9343531502434318</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -2377,19 +2377,19 @@
         <v>187926</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>175792</v>
+        <v>177193</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>196080</v>
+        <v>197838</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8774473133820822</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8207912534369564</v>
+        <v>0.827333270721475</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9155194734630292</v>
+        <v>0.9237265176230069</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>412</v>
@@ -2398,19 +2398,19 @@
         <v>436896</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>421089</v>
+        <v>420944</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>449416</v>
+        <v>449753</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.89121164988325</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8589672022441359</v>
+        <v>0.8586712513851543</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9167506820009329</v>
+        <v>0.9174378253294135</v>
       </c>
     </row>
     <row r="6">
@@ -2502,19 +2502,19 @@
         <v>48465</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36073</v>
+        <v>36045</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63787</v>
+        <v>62443</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1992510835020092</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1483049748417981</v>
+        <v>0.1481878945862863</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2622413153490175</v>
+        <v>0.2567176891470017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -2523,19 +2523,19 @@
         <v>63087</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50406</v>
+        <v>51284</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76794</v>
+        <v>78550</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3334811700963967</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2664509061443009</v>
+        <v>0.2710899484479226</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4059375876111868</v>
+        <v>0.415223690774409</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -2544,19 +2544,19 @@
         <v>111552</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>95165</v>
+        <v>93617</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131539</v>
+        <v>131235</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2579753247057096</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2200794199085067</v>
+        <v>0.2165000942867963</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3041980369846287</v>
+        <v>0.3034945007428524</v>
       </c>
     </row>
     <row r="8">
@@ -2573,19 +2573,19 @@
         <v>194772</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>179450</v>
+        <v>180794</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>207164</v>
+        <v>207192</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8007489164979908</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7377586846509825</v>
+        <v>0.7432823108529983</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8516950251582017</v>
+        <v>0.8518121054137137</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>120</v>
@@ -2594,19 +2594,19 @@
         <v>126089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>112382</v>
+        <v>110626</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>138770</v>
+        <v>137892</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6665188299036033</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5940624123888132</v>
+        <v>0.584776309225591</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7335490938556991</v>
+        <v>0.7289100515520774</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>300</v>
@@ -2615,19 +2615,19 @@
         <v>320861</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>300874</v>
+        <v>301178</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>337248</v>
+        <v>338796</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7420246752942904</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6958019630153712</v>
+        <v>0.6965054992571476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7799205800914932</v>
+        <v>0.7834999057132038</v>
       </c>
     </row>
     <row r="9">
@@ -2719,19 +2719,19 @@
         <v>38507</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28289</v>
+        <v>27123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51830</v>
+        <v>51118</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1780050222179401</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1307729325316262</v>
+        <v>0.1253785240414369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2395925171014215</v>
+        <v>0.2363022877017615</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6613</v>
+        <v>6345</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02955561239379182</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1015584024408677</v>
+        <v>0.09743763801935054</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -2761,19 +2761,19 @@
         <v>40432</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28850</v>
+        <v>28571</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54842</v>
+        <v>52966</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1436580759814051</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1025057843120658</v>
+        <v>0.1015176495114682</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1948617263310017</v>
+        <v>0.188193571908758</v>
       </c>
     </row>
     <row r="11">
@@ -2790,19 +2790,19 @@
         <v>177818</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>164495</v>
+        <v>165207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>188036</v>
+        <v>189202</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8219949777820599</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7604074828985781</v>
+        <v>0.7636977122982386</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8692270674683734</v>
+        <v>0.8746214759585631</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -2811,7 +2811,7 @@
         <v>63193</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58505</v>
+        <v>58773</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>65118</v>
@@ -2820,7 +2820,7 @@
         <v>0.9704443876062082</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8984415975591322</v>
+        <v>0.902562361980648</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2832,19 +2832,19 @@
         <v>241011</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>226601</v>
+        <v>228477</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>252593</v>
+        <v>252872</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8563419240185949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8051382736689984</v>
+        <v>0.811806428091242</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8974942156879347</v>
+        <v>0.8984823504885319</v>
       </c>
     </row>
     <row r="12">
@@ -2936,19 +2936,19 @@
         <v>141032</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122957</v>
+        <v>122778</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164183</v>
+        <v>162406</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2891772345737542</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2521156467451675</v>
+        <v>0.2517477371391602</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3366478448256661</v>
+        <v>0.3330041429957829</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>116</v>
@@ -2957,19 +2957,19 @@
         <v>115768</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99452</v>
+        <v>100698</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>132856</v>
+        <v>133628</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3172219946270335</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2725150660283033</v>
+        <v>0.2759287757576416</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3640458026028321</v>
+        <v>0.3661621097947637</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>247</v>
@@ -2978,19 +2978,19 @@
         <v>256799</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>231024</v>
+        <v>230927</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>281786</v>
+        <v>284560</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3011807434050321</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2709503034927846</v>
+        <v>0.2708367333531005</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3304859835754186</v>
+        <v>0.3337393610166852</v>
       </c>
     </row>
     <row r="14">
@@ -3007,19 +3007,19 @@
         <v>346669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>323518</v>
+        <v>325295</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>364744</v>
+        <v>364923</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7108227654262458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6633521551743339</v>
+        <v>0.6669958570042172</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7478843532548325</v>
+        <v>0.7482522628608397</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>244</v>
@@ -3028,19 +3028,19 @@
         <v>249174</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>232086</v>
+        <v>231314</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>265490</v>
+        <v>264244</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6827780053729665</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6359541973971675</v>
+        <v>0.6338378902052364</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7274849339716967</v>
+        <v>0.7240712242423583</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>576</v>
@@ -3049,19 +3049,19 @@
         <v>595843</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>570856</v>
+        <v>568082</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>621618</v>
+        <v>621715</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6988192565949679</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6695140164245813</v>
+        <v>0.6662606389833148</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7290496965072154</v>
+        <v>0.7291632666468996</v>
       </c>
     </row>
     <row r="15">
@@ -3153,19 +3153,19 @@
         <v>88508</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74745</v>
+        <v>74048</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102967</v>
+        <v>101984</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4585368534987669</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3872334292993043</v>
+        <v>0.3836268814730575</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.533446470597288</v>
+        <v>0.5283554745626139</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -3174,19 +3174,19 @@
         <v>90662</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>76402</v>
+        <v>76929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103084</v>
+        <v>103798</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4587727381338493</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3866106024895631</v>
+        <v>0.3892815838423335</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5216324185052172</v>
+        <v>0.5252436667811436</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>168</v>
@@ -3195,19 +3195,19 @@
         <v>179169</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>161208</v>
+        <v>157496</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>201412</v>
+        <v>199156</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4586561838312883</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4126761705286275</v>
+        <v>0.4031744677582212</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.51559428995583</v>
+        <v>0.5098209260409425</v>
       </c>
     </row>
     <row r="17">
@@ -3224,19 +3224,19 @@
         <v>104514</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>90055</v>
+        <v>91038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>118277</v>
+        <v>118974</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5414631465012331</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4665535294027121</v>
+        <v>0.4716445254373862</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6127665707006957</v>
+        <v>0.6163731185269424</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>104</v>
@@ -3245,19 +3245,19 @@
         <v>106957</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>94535</v>
+        <v>93821</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>121217</v>
+        <v>120690</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5412272618661508</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4783675814947828</v>
+        <v>0.4747563332188563</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.613389397510437</v>
+        <v>0.6107184161576664</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>200</v>
@@ -3266,19 +3266,19 @@
         <v>211471</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>189228</v>
+        <v>191484</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>229432</v>
+        <v>233144</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5413438161687117</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4844057100441702</v>
+        <v>0.4901790739590575</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5873238294713725</v>
+        <v>0.5968255322417786</v>
       </c>
     </row>
     <row r="18">
@@ -3370,19 +3370,19 @@
         <v>343595</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>310307</v>
+        <v>310766</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>378156</v>
+        <v>376439</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2425940892849737</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2190915323097553</v>
+        <v>0.2194150384677822</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2669959674422638</v>
+        <v>0.2657834390605909</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>293</v>
@@ -3391,19 +3391,19 @@
         <v>297689</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>267499</v>
+        <v>271017</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>325728</v>
+        <v>327725</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2887296171785275</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2594486041582725</v>
+        <v>0.2628605376623983</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3159253514609521</v>
+        <v>0.3178616538183013</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>606</v>
@@ -3412,19 +3412,19 @@
         <v>641283</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>597731</v>
+        <v>597094</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>683961</v>
+        <v>682824</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2620301122341502</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2442345787764788</v>
+        <v>0.243974431852603</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2794682591291431</v>
+        <v>0.2790037478403518</v>
       </c>
     </row>
     <row r="20">
@@ -3441,19 +3441,19 @@
         <v>1072742</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1038181</v>
+        <v>1039898</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1106030</v>
+        <v>1105571</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7574059107150264</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7330040325577364</v>
+        <v>0.734216560939409</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7809084676902447</v>
+        <v>0.7805849615322178</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>714</v>
@@ -3462,19 +3462,19 @@
         <v>733340</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>705301</v>
+        <v>703304</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>763530</v>
+        <v>760012</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7112703828214725</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6840746485390479</v>
+        <v>0.6821383461816987</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7405513958417275</v>
+        <v>0.7371394623376016</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1718</v>
@@ -3483,19 +3483,19 @@
         <v>1806082</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1763404</v>
+        <v>1764541</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1849634</v>
+        <v>1850271</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7379698877658498</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7205317408708571</v>
+        <v>0.7209962521596482</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7557654212235213</v>
+        <v>0.7560255681473971</v>
       </c>
     </row>
     <row r="21">
